--- a/jellyrolls.xlsx
+++ b/jellyrolls.xlsx
@@ -5490,7 +5490,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
